--- a/uploads/debitur.xlsx
+++ b/uploads/debitur.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vysco Zyza\3D Objects\Dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vysco Zyza\3D Objects\Kanwil-BRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2092F598-EB00-4FFC-B33E-C81E02F4B535}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44F6C94-6958-4003-9154-50E250B2C04F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="353" windowWidth="26301" windowHeight="14427" xr2:uid="{29477647-CB3F-4EB5-9E57-225098BF4217}"/>
+    <workbookView xWindow="1902" yWindow="2364" windowWidth="13856" windowHeight="7268" xr2:uid="{29477647-CB3F-4EB5-9E57-225098BF4217}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -547,7 +547,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -613,7 +613,7 @@
         <v>30</v>
       </c>
       <c r="F2" s="7">
-        <v>900000000</v>
+        <v>76000000000</v>
       </c>
       <c r="G2" s="7">
         <v>900000000</v>
@@ -648,7 +648,7 @@
         <v>32</v>
       </c>
       <c r="F3" s="7">
-        <v>150000000</v>
+        <v>48400000000</v>
       </c>
       <c r="G3" s="7">
         <v>119503941</v>
@@ -683,7 +683,7 @@
         <v>34</v>
       </c>
       <c r="F4" s="7">
-        <v>10000000000</v>
+        <v>48000000000</v>
       </c>
       <c r="G4" s="7">
         <v>10000000000</v>
@@ -806,7 +806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="32.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
